--- a/expense/气垫组/2024-06-09/汇总表.xlsx
+++ b/expense/气垫组/2024-06-09/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,20 +13,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -72,9 +59,6 @@
     <t>收款人</t>
   </si>
   <si>
-    <t>支出单号</t>
-  </si>
-  <si>
     <t>状态</t>
   </si>
   <si>
@@ -91,6 +75,9 @@
   </si>
   <si>
     <t>张起川</t>
+  </si>
+  <si>
+    <t>收款人已确认</t>
   </si>
   <si>
     <t>2024-03-31</t>
@@ -366,13 +353,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -461,6 +448,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -476,6 +493,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -484,48 +568,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,64 +583,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -630,19 +617,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,31 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,18 +749,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -726,18 +779,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -745,60 +786,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,6 +870,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -898,11 +903,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,8 +921,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,17 +942,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,177 +967,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,9 +1139,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1165,9 +1149,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1176,6 +1157,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,12 +1176,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1243,48 +1230,30 @@
     <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,63 +1266,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1628,35 +1600,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="5.37272727272727" customWidth="1"/>
-    <col min="2" max="2" width="10.9272727272727" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6454545454545" style="33" customWidth="1"/>
-    <col min="4" max="4" width="46.2636363636364" style="34" customWidth="1"/>
-    <col min="5" max="5" width="6.71818181818182" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.37272727272727" style="35" customWidth="1"/>
-    <col min="7" max="7" width="10.3090909090909" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.76363636363636" style="33" customWidth="1"/>
-    <col min="9" max="9" width="7.37272727272727" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.37272727272727" style="36" customWidth="1"/>
-    <col min="11" max="11" width="9.37272727272727" style="35" customWidth="1"/>
-    <col min="12" max="12" width="8.98181818181818" style="33" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="10.925" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6416666666667" style="33" customWidth="1"/>
+    <col min="4" max="4" width="46.2666666666667" style="34" customWidth="1"/>
+    <col min="5" max="5" width="6.71666666666667" style="33" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="35" customWidth="1"/>
+    <col min="7" max="7" width="10.3083333333333" style="33" customWidth="1"/>
+    <col min="8" max="8" width="9.76666666666667" style="33" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="33" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="36" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="8.98333333333333" style="33" customWidth="1"/>
     <col min="13" max="13" width="7" style="34" customWidth="1"/>
-    <col min="14" max="14" width="13.7545454545455" style="33" customWidth="1"/>
-    <col min="15" max="15" width="5.37272727272727" style="34" customWidth="1"/>
-    <col min="16" max="30" width="9" style="34"/>
+    <col min="14" max="14" width="19.7083333333333" style="34" customWidth="1"/>
+    <col min="15" max="29" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1672,7 +1643,7 @@
       <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
@@ -1684,10 +1655,10 @@
       <c r="I1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="52" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="37" t="s">
@@ -1699,206 +1670,198 @@
       <c r="N1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="37" t="s">
+    </row>
+    <row r="2" ht="1" customHeight="1" spans="3:12">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="48"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="1" customHeight="1" spans="3:14">
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="54"/>
-      <c r="N2" s="39"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="C3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="E3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="45">
+        <v>52.63</v>
+      </c>
+      <c r="G3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="44">
+      <c r="H3" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="49">
         <v>52.63</v>
       </c>
-      <c r="G3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="42"/>
-      <c r="J3" s="55">
-        <v>52.63</v>
-      </c>
-      <c r="K3" s="48">
+      <c r="K3" s="45">
         <f>SUM(F:F)</f>
         <v>2528.14</v>
       </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="45" t="s">
+      <c r="L3" s="39"/>
+      <c r="M3" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="7">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="44">
+      <c r="F4" s="45">
         <v>2048</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="43" t="s">
+      <c r="G4" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="49">
         <v>2048</v>
       </c>
-      <c r="K4" s="48"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="7">
+      <c r="K4" s="45"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="51"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="45">
         <v>160</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="47" t="s">
+      <c r="G5" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="56">
+      <c r="I5" s="39"/>
+      <c r="J5" s="49">
         <v>385</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="57"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="7">
+      <c r="K5" s="45"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="D6" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="45">
         <v>225</v>
       </c>
-      <c r="G6" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="57"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="7">
+      <c r="G6" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="D7" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="45">
         <v>42.51</v>
       </c>
-      <c r="G7" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="47" t="s">
+      <c r="G7" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="56">
+      <c r="I7" s="39"/>
+      <c r="J7" s="49">
         <v>42.51</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="57"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="52"/>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="51"/>
+      <c r="B8" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K3:K7"/>
     <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="N3:N7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" display="清翔电子-51智能小车"/>
@@ -1941,18 +1904,18 @@
       <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="9.87272727272727" customWidth="1"/>
-    <col min="4" max="4" width="8.25454545454545" customWidth="1"/>
-    <col min="5" max="5" width="20.8727272727273" customWidth="1"/>
-    <col min="6" max="6" width="15.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="9.875" customWidth="1"/>
+    <col min="4" max="4" width="8.25833333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.5" spans="1:9">
+    <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1981,7 +1944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:9">
+    <row r="2" ht="15" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2003,14 +1966,14 @@
       <c r="G2" s="6">
         <v>2157646685</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" ht="15" spans="1:9">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -2026,10 +1989,10 @@
       <c r="G3" s="6">
         <v>3254581285</v>
       </c>
-      <c r="H3" s="7"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="23"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" ht="15" spans="1:9">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -2045,639 +2008,639 @@
       <c r="G4" s="6">
         <v>2126300990</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="24"/>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" ht="15" spans="1:9">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>18976848923</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>3205223928</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" ht="15" spans="1:9">
       <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>18976689326</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>2126300990</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" ht="15" spans="1:9">
       <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>17766954118</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>3254581285</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" ht="15" spans="1:9">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>18137615007</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="16">
         <v>3084572358</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="26"/>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" ht="15" spans="1:9">
       <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="16">
         <v>13658122623</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="16">
         <v>2652911374</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" ht="15" spans="1:9">
       <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>18976676519</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>2157646685</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" ht="15" spans="1:9">
       <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>17373701992</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>1469444875</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" ht="15" spans="1:9">
       <c r="A12" s="3"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>18976068301</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>2662556963</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" ht="15" spans="1:9">
       <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>18976093581</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>2059602158</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="29"/>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" ht="15" spans="1:9">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>15607245139</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>2049447557</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" ht="15" spans="1:9">
       <c r="A15" s="3"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>18976979317</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>3099202837</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="30"/>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" ht="15" spans="1:9">
       <c r="A16" s="3"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>18907585873</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>3176326652</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" ht="15" spans="1:9">
       <c r="A17" s="3">
         <v>6</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>14780091240</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>1779039481</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I17" s="32" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" ht="15" spans="1:9">
       <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>13285606926</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>893225590</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" ht="15" spans="1:9">
       <c r="A19" s="3"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="18">
         <v>13519814322</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1543790688</v>
       </c>
-      <c r="H19" s="7"/>
+      <c r="H19" s="15"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" ht="15" spans="1:9">
       <c r="A20" s="3">
         <v>7</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>15607559390</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>2434993443</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" ht="15" spans="1:9">
       <c r="A21" s="3"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>18827239020</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>3161951372</v>
       </c>
-      <c r="H21" s="7"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="30"/>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" ht="15" spans="1:9">
       <c r="A22" s="3"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="10" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>17339680919</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>1624562691</v>
       </c>
-      <c r="H22" s="7"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="30"/>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" ht="15" spans="1:9">
       <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>18976242202</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>2386961643</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" ht="15" spans="1:9">
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="19">
         <v>18256807012</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>1547337247</v>
       </c>
-      <c r="H24" s="7"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" ht="15" spans="1:9">
       <c r="A25" s="3"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="10" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>18976946070</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>2083038916</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I25" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" ht="15" spans="1:9">
       <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>19932136739</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>1487864798</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I26" s="25" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" ht="15" spans="1:9">
       <c r="A27" s="3"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>15522999550</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>1753373622</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I27" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" ht="15" spans="1:9">
       <c r="A28" s="3">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>15055092005</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>861146418</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="15" t="s">
         <v>40</v>
       </c>
       <c r="I28" s="22" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" ht="15" spans="1:9">
       <c r="A29" s="3"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="19" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>18648563815</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>2106777958</v>
       </c>
-      <c r="H29" s="7"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" ht="15" spans="1:9">
       <c r="A30" s="3"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="19" t="s">
+      <c r="B30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F30" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>484809632</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="15"/>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" ht="15" spans="1:9">
       <c r="A31" s="3"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>18847764197</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>1687624302</v>
       </c>
-      <c r="H31" s="7"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" ht="15" spans="1:9">
       <c r="A32" s="3"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="19" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="7"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="24"/>
     </row>
   </sheetData>

--- a/expense/气垫组/2024-06-09/汇总表.xlsx
+++ b/expense/气垫组/2024-06-09/汇总表.xlsx
@@ -18,96 +18,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="106">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>日期(小注)</t>
+  </si>
+  <si>
+    <t>简述</t>
+  </si>
+  <si>
+    <t>订单</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>支付记录</t>
+  </si>
+  <si>
+    <t>发票</t>
+  </si>
+  <si>
+    <t>验真</t>
+  </si>
+  <si>
+    <t>小计</t>
+  </si>
+  <si>
+    <t>总额</t>
+  </si>
+  <si>
+    <t>收款人</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>2024-03-05</t>
+  </si>
+  <si>
+    <t>清翔电子-51智能小车</t>
+  </si>
+  <si>
+    <t>付款记录</t>
+  </si>
+  <si>
+    <t>张起川</t>
+  </si>
+  <si>
+    <t>收款人已确认</t>
+  </si>
+  <si>
+    <t>2024-03-31</t>
+  </si>
+  <si>
+    <t>逐飞-19届沁恒CH32V307VCT6本科气垫船学习套件</t>
+  </si>
+  <si>
+    <t>2024-04-19</t>
+  </si>
+  <si>
+    <t>沁恒CH32V307VCT6主板</t>
+  </si>
+  <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>沁恒CH32V307VCT6芯片及核心板</t>
+  </si>
+  <si>
+    <t>2024-05-04</t>
+  </si>
+  <si>
+    <t>嘉立创气垫船主板</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>队名</t>
+  </si>
+  <si>
     <t>组别</t>
-  </si>
-  <si>
-    <t>日期(小注)</t>
-  </si>
-  <si>
-    <t>简述</t>
-  </si>
-  <si>
-    <t>订单</t>
-  </si>
-  <si>
-    <t>金额</t>
-  </si>
-  <si>
-    <t>支付记录</t>
-  </si>
-  <si>
-    <t>发票</t>
-  </si>
-  <si>
-    <t>验真</t>
-  </si>
-  <si>
-    <t>小计</t>
-  </si>
-  <si>
-    <t>总额</t>
-  </si>
-  <si>
-    <t>出入库</t>
-  </si>
-  <si>
-    <t>收款人</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>气垫船组</t>
-  </si>
-  <si>
-    <t>2024-03-05</t>
-  </si>
-  <si>
-    <t>清翔电子-51智能小车</t>
-  </si>
-  <si>
-    <t>付款记录</t>
-  </si>
-  <si>
-    <t>张起川</t>
-  </si>
-  <si>
-    <t>收款人已确认</t>
-  </si>
-  <si>
-    <t>2024-03-31</t>
-  </si>
-  <si>
-    <t>逐飞-19届沁恒CH32V307VCT6本科气垫船学习套件</t>
-  </si>
-  <si>
-    <t>2024-04-19</t>
-  </si>
-  <si>
-    <t>沁恒CH32V307VCT6主板</t>
-  </si>
-  <si>
-    <t>2024-05-14</t>
-  </si>
-  <si>
-    <t>沁恒CH32V307VCT6芯片及核心板</t>
-  </si>
-  <si>
-    <t>2024-05-04</t>
-  </si>
-  <si>
-    <t>嘉立创气垫船主板</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>队名</t>
   </si>
   <si>
     <t>队员</t>
@@ -355,11 +349,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -449,16 +443,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -470,8 +486,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,20 +517,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -508,6 +525,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -516,6 +547,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -524,37 +556,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,22 +577,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -629,19 +623,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,19 +707,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,37 +737,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,30 +773,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -755,43 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,17 +867,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,6 +888,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -918,15 +932,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -938,17 +943,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,152 +966,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1242,9 +1236,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1258,9 +1249,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1600,34 +1588,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="10.925" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6416666666667" style="33" customWidth="1"/>
-    <col min="4" max="4" width="46.2666666666667" style="34" customWidth="1"/>
-    <col min="5" max="5" width="6.71666666666667" style="33" customWidth="1"/>
-    <col min="6" max="6" width="8.375" style="35" customWidth="1"/>
-    <col min="7" max="7" width="10.3083333333333" style="33" customWidth="1"/>
-    <col min="8" max="8" width="9.76666666666667" style="33" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="33" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="36" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="8.98333333333333" style="33" customWidth="1"/>
-    <col min="13" max="13" width="7" style="34" customWidth="1"/>
-    <col min="14" max="14" width="19.7083333333333" style="34" customWidth="1"/>
-    <col min="15" max="29" width="9" style="34"/>
+    <col min="2" max="2" width="10.6416666666667" style="33" customWidth="1"/>
+    <col min="3" max="3" width="40.95" style="34" customWidth="1"/>
+    <col min="4" max="4" width="5.375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="6.375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="33" customWidth="1"/>
+    <col min="7" max="8" width="5.375" style="33" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="36" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="7" style="34" customWidth="1"/>
+    <col min="12" max="12" width="12.4" style="34" customWidth="1"/>
+    <col min="13" max="27" width="9" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
@@ -1640,10 +1625,10 @@
       <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="37" t="s">
@@ -1652,238 +1637,215 @@
       <c r="H1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="37" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="1" customHeight="1" spans="3:12">
+    </row>
+    <row r="2" ht="1" customHeight="1" spans="2:10">
+      <c r="B2" s="38"/>
       <c r="C2" s="38"/>
       <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="44"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="48"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="I2" s="46"/>
+      <c r="J2" s="43"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="44">
+        <v>52.63</v>
+      </c>
+      <c r="F3" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="G3" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="39"/>
+      <c r="I3" s="47">
+        <v>52.63</v>
+      </c>
+      <c r="J3" s="44">
+        <f>SUM(E:E)</f>
+        <v>2528.14</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="L3" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="45">
-        <v>52.63</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="49">
-        <v>52.63</v>
-      </c>
-      <c r="K3" s="45">
-        <f>SUM(F:F)</f>
-        <v>2528.14</v>
-      </c>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="39" t="s">
-        <v>20</v>
+      <c r="B4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>18</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="45">
+        <v>3</v>
+      </c>
+      <c r="E4" s="44">
         <v>2048</v>
       </c>
+      <c r="F4" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="40" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="49">
+      <c r="I4" s="47">
         <v>2048</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="51"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="J4" s="44"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="49"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="45">
+      <c r="B5" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="44">
         <v>160</v>
       </c>
+      <c r="F5" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="G5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="39"/>
-      <c r="J5" s="49">
+        <v>6</v>
+      </c>
+      <c r="H5" s="39"/>
+      <c r="I5" s="47">
         <v>385</v>
       </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="51"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="J5" s="44"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="39" t="s">
-        <v>24</v>
+      <c r="B6" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="45">
+        <v>3</v>
+      </c>
+      <c r="E6" s="44">
         <v>225</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="F6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="39" t="s">
-        <v>26</v>
+      <c r="B7" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="45">
+        <v>3</v>
+      </c>
+      <c r="E7" s="44">
         <v>42.51</v>
       </c>
+      <c r="F7" s="40" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="39"/>
-      <c r="J7" s="49">
+        <v>6</v>
+      </c>
+      <c r="H7" s="39"/>
+      <c r="I7" s="47">
         <v>42.51</v>
       </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="52"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="42"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:B7"/>
+  <mergeCells count="6">
+    <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J3:J7"/>
     <mergeCell ref="K3:K7"/>
-    <mergeCell ref="M3:M7"/>
-    <mergeCell ref="N3:N7"/>
+    <mergeCell ref="L3:L7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="清翔电子-51智能小车"/>
-    <hyperlink ref="D4" r:id="rId2" display="逐飞-19届沁恒CH32V307VCT6本科气垫船学习套件"/>
-    <hyperlink ref="E3" r:id="rId3" display="订单"/>
-    <hyperlink ref="E4" r:id="rId4" display="订单"/>
-    <hyperlink ref="G3" r:id="rId5" display="付款记录"/>
-    <hyperlink ref="G4" r:id="rId6" display="付款记录"/>
-    <hyperlink ref="H3" r:id="rId7" display="发票"/>
-    <hyperlink ref="H4" r:id="rId8" display="发票"/>
-    <hyperlink ref="I4" r:id="rId9" display="验真"/>
-    <hyperlink ref="E5" r:id="rId10" display="订单"/>
-    <hyperlink ref="G5" r:id="rId11" display="付款记录"/>
-    <hyperlink ref="E7" r:id="rId12" display="订单"/>
-    <hyperlink ref="G7" r:id="rId13" display="付款记录"/>
-    <hyperlink ref="E6" r:id="rId14" display="订单"/>
-    <hyperlink ref="G6" r:id="rId15" display="付款记录"/>
-    <hyperlink ref="D5" r:id="rId16" display="沁恒CH32V307VCT6主板"/>
-    <hyperlink ref="D7" r:id="rId17" display="嘉立创气垫船主板"/>
-    <hyperlink ref="D6" r:id="rId18" display="沁恒CH32V307VCT6芯片及核心板"/>
-    <hyperlink ref="H5:H6" r:id="rId19" display="发票"/>
-    <hyperlink ref="H7" r:id="rId20" display="发票"/>
+    <hyperlink ref="C3" r:id="rId1" display="清翔电子-51智能小车"/>
+    <hyperlink ref="C4" r:id="rId2" display="逐飞-19届沁恒CH32V307VCT6本科气垫船学习套件"/>
+    <hyperlink ref="D3" r:id="rId3" display="订单"/>
+    <hyperlink ref="D4" r:id="rId4" display="订单"/>
+    <hyperlink ref="F3" r:id="rId5" display="付款记录"/>
+    <hyperlink ref="F4" r:id="rId6" display="付款记录"/>
+    <hyperlink ref="G3" r:id="rId7" display="发票"/>
+    <hyperlink ref="G4" r:id="rId8" display="发票"/>
+    <hyperlink ref="H4" r:id="rId9" display="验真"/>
+    <hyperlink ref="D5" r:id="rId10" display="订单"/>
+    <hyperlink ref="F5" r:id="rId11" display="付款记录"/>
+    <hyperlink ref="D7" r:id="rId12" display="订单"/>
+    <hyperlink ref="F7" r:id="rId13" display="付款记录"/>
+    <hyperlink ref="D6" r:id="rId14" display="订单"/>
+    <hyperlink ref="F6" r:id="rId15" display="付款记录"/>
+    <hyperlink ref="C5" r:id="rId16" display="沁恒CH32V307VCT6主板"/>
+    <hyperlink ref="C7" r:id="rId17" display="嘉立创气垫船主板"/>
+    <hyperlink ref="C6" r:id="rId18" display="沁恒CH32V307VCT6芯片及核心板"/>
+    <hyperlink ref="G5:G6" r:id="rId19" display="发票"/>
+    <hyperlink ref="G7" r:id="rId20" display="发票"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -1917,31 +1879,31 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:9">
       <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" ht="15" spans="1:9">
@@ -1949,16 +1911,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="F2" s="6">
         <v>18976676519</v>
@@ -1967,10 +1929,10 @@
         <v>2157646685</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:9">
@@ -1978,10 +1940,10 @@
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="6">
         <v>17766954118</v>
@@ -1997,10 +1959,10 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F4" s="6">
         <v>18976689326</v>
@@ -2016,16 +1978,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F5" s="9">
         <v>18976848923</v>
@@ -2034,10 +1996,10 @@
         <v>3205223928</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:9">
@@ -2045,10 +2007,10 @@
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F6" s="9">
         <v>18976689326</v>
@@ -2057,10 +2019,10 @@
         <v>2126300990</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:9">
@@ -2068,10 +2030,10 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="9">
         <v>17766954118</v>
@@ -2080,10 +2042,10 @@
         <v>3254581285</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:9">
@@ -2091,16 +2053,16 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F8" s="16">
         <v>18137615007</v>
@@ -2116,10 +2078,10 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="16">
         <v>13658122623</v>
@@ -2128,10 +2090,10 @@
         <v>2652911374</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:9">
@@ -2139,10 +2101,10 @@
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="9">
         <v>18976676519</v>
@@ -2151,10 +2113,10 @@
         <v>2157646685</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" ht="15" spans="1:9">
@@ -2162,16 +2124,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="9">
         <v>17373701992</v>
@@ -2180,10 +2142,10 @@
         <v>1469444875</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" ht="15" spans="1:9">
@@ -2191,10 +2153,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F12" s="9">
         <v>18976068301</v>
@@ -2210,10 +2172,10 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="9">
         <v>18976093581</v>
@@ -2229,16 +2191,16 @@
         <v>5</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="E14" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F14" s="9">
         <v>15607245139</v>
@@ -2247,10 +2209,10 @@
         <v>2049447557</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I14" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:9">
@@ -2258,10 +2220,10 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F15" s="9">
         <v>18976979317</v>
@@ -2277,10 +2239,10 @@
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="9">
         <v>18907585873</v>
@@ -2296,16 +2258,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F17" s="9">
         <v>14780091240</v>
@@ -2314,10 +2276,10 @@
         <v>1779039481</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="15" spans="1:9">
@@ -2325,10 +2287,10 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F18" s="9">
         <v>13285606926</v>
@@ -2337,7 +2299,7 @@
         <v>893225590</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" s="32"/>
     </row>
@@ -2346,10 +2308,10 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="18">
         <v>13519814322</v>
@@ -2365,16 +2327,16 @@
         <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F20" s="9">
         <v>15607559390</v>
@@ -2383,10 +2345,10 @@
         <v>2434993443</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" ht="15" spans="1:9">
@@ -2394,10 +2356,10 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F21" s="9">
         <v>18827239020</v>
@@ -2413,10 +2375,10 @@
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F22" s="9">
         <v>17339680919</v>
@@ -2432,10 +2394,10 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="9">
         <v>18976242202</v>
@@ -2451,16 +2413,16 @@
         <v>8</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>90</v>
       </c>
       <c r="F24" s="19">
         <v>18256807012</v>
@@ -2470,7 +2432,7 @@
       </c>
       <c r="H24" s="15"/>
       <c r="I24" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" ht="15" spans="1:9">
@@ -2478,10 +2440,10 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F25" s="9">
         <v>18976946070</v>
@@ -2490,10 +2452,10 @@
         <v>2083038916</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="15" spans="1:9">
@@ -2501,10 +2463,10 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F26" s="9">
         <v>19932136739</v>
@@ -2513,10 +2475,10 @@
         <v>1487864798</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="15" spans="1:9">
@@ -2524,10 +2486,10 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F27" s="9">
         <v>15522999550</v>
@@ -2536,10 +2498,10 @@
         <v>1753373622</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I27" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" ht="15" spans="1:9">
@@ -2547,16 +2509,16 @@
         <v>9</v>
       </c>
       <c r="B28" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="F28" s="9">
         <v>15055092005</v>
@@ -2565,10 +2527,10 @@
         <v>861146418</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" ht="15" spans="1:9">
@@ -2576,10 +2538,10 @@
       <c r="B29" s="11"/>
       <c r="C29" s="7"/>
       <c r="D29" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="9">
         <v>18648563815</v>
@@ -2595,13 +2557,13 @@
       <c r="B30" s="11"/>
       <c r="C30" s="7"/>
       <c r="D30" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G30" s="9">
         <v>484809632</v>
@@ -2614,10 +2576,10 @@
       <c r="B31" s="11"/>
       <c r="C31" s="7"/>
       <c r="D31" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="9">
         <v>18847764197</v>
@@ -2633,10 +2595,10 @@
       <c r="B32" s="11"/>
       <c r="C32" s="7"/>
       <c r="D32" s="14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
